--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
   </x:si>
   <x:si>
     <x:t>1220022</x:t>
@@ -569,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2080,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2441,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2458,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Jana Mostafa Al-Sayed Ahmed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240049</x:t>
   </x:si>
   <x:si>
@@ -283,6 +292,24 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210060</x:t>
@@ -578,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +905,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1225,7 +1252,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1257,7 +1284,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1289,7 +1316,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.4131214931</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1321,7 +1348,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.4164679051</x:v>
+        <x:v>45913.4131214931</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1353,7 +1380,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45913.4164679051</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1385,7 +1412,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1417,7 +1444,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1449,7 +1476,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1481,7 +1508,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1513,7 +1540,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1545,7 +1572,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1577,7 +1604,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.4152017708</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1609,7 +1636,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45913.4152017708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1641,7 +1668,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1700,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45913.4167702199</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1732,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,7 +1764,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,7 +1796,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1828,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1860,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1892,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1924,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1956,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1988,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +2020,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2052,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2084,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2116,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2148,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2180,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2212,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2244,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2276,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2308,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2340,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2372,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2404,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2436,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2468,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2473,7 +2500,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2490,6 +2517,102 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45913.4173447569</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>4240002</x:t>
@@ -605,7 +614,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -905,7 +914,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -996,7 +1005,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6654846412</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6784016204</x:v>
+        <x:v>45907.6654846412</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6665487269</x:v>
+        <x:v>45906.6784016204</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.4064956018</x:v>
+        <x:v>45907.6665487269</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45913.4064956018</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1316,7 +1325,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1348,7 +1357,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.4131214931</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1380,7 +1389,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.4164679051</x:v>
+        <x:v>45913.4131214931</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1412,7 +1421,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45913.4164679051</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1444,7 +1453,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1476,7 +1485,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1508,7 +1517,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1540,7 +1549,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1572,7 +1581,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1604,7 +1613,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1636,7 +1645,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.4152017708</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1668,7 +1677,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45913.4152017708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1700,7 +1709,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1732,7 +1741,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45913.4167702199</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1764,7 +1773,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1796,7 +1805,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1828,7 +1837,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1860,7 +1869,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1892,7 +1901,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1924,7 +1933,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1956,7 +1965,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1988,7 +1997,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2020,7 +2029,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2052,7 +2061,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2084,7 +2093,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2116,7 +2125,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2372,7 +2381,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2404,7 +2413,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2436,7 +2445,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2468,7 +2477,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2500,7 +2509,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2532,7 +2541,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2564,7 +2573,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2596,7 +2605,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2613,6 +2622,38 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -2660,11 +2660,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Energy Conversion (EPES204) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله فريد عبدالله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210060</x:t>
@@ -614,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -914,7 +905,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T53"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1997,7 +1988,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2029,7 +2020,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2061,7 +2052,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2093,7 +2084,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2125,7 +2116,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2157,7 +2148,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2189,7 +2180,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2221,7 +2212,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2253,7 +2244,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2285,7 +2276,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2317,7 +2308,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2349,7 +2340,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2381,7 +2372,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2413,7 +2404,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2445,7 +2436,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2477,7 +2468,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2509,7 +2500,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2541,7 +2532,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2573,7 +2564,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2605,7 +2596,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660571412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2622,38 +2613,6 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20">
-      <x:c r="A53" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="E53" s="3">
-        <x:v>45907.6660571412</x:v>
-      </x:c>
-      <x:c r="F53" s="2" t="s"/>
-      <x:c r="G53" s="2" t="s"/>
-      <x:c r="H53" s="2" t="s"/>
-      <x:c r="I53" s="2" t="s"/>
-      <x:c r="J53" s="2" t="s"/>
-      <x:c r="K53" s="2" t="s"/>
-      <x:c r="L53" s="2" t="s"/>
-      <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="2" t="s"/>
-      <x:c r="O53" s="2" t="s"/>
-      <x:c r="P53" s="2" t="s"/>
-      <x:c r="Q53" s="2" t="s"/>
-      <x:c r="R53" s="2" t="s"/>
-      <x:c r="S53" s="2" t="s"/>
-      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Talaat Mansour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>1240286</x:t>
@@ -605,7 +614,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -905,7 +914,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1156,7 +1165,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6658420486</x:v>
+        <x:v>45924.3602009259</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45907.6658420486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1316,7 +1325,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1348,7 +1357,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1380,7 +1389,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.4131214931</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1412,7 +1421,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.4164679051</x:v>
+        <x:v>45913.4131214931</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1444,7 +1453,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45913.4164679051</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1476,7 +1485,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1508,7 +1517,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1540,7 +1549,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1572,7 +1581,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1604,7 +1613,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1636,7 +1645,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1668,7 +1677,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.4152017708</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1700,7 +1709,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45913.4152017708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1732,7 +1741,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1764,7 +1773,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45913.4167702199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1796,7 +1805,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1828,7 +1837,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1860,7 +1869,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1892,7 +1901,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1924,7 +1933,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1956,7 +1965,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1988,7 +1997,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2020,7 +2029,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2052,7 +2061,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2084,7 +2093,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2116,7 +2125,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2372,7 +2381,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2404,7 +2413,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2436,7 +2445,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2468,7 +2477,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2500,7 +2509,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2532,7 +2541,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2564,7 +2573,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2596,7 +2605,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2613,6 +2622,38 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -249,15 +249,6 @@
     <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240326</x:t>
   </x:si>
   <x:si>
@@ -454,6 +445,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240158</x:t>
@@ -1773,7 +1773,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1805,7 +1805,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1837,7 +1837,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1869,7 +1869,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1901,7 +1901,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1933,7 +1933,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1965,7 +1965,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1997,7 +1997,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2029,7 +2029,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2061,7 +2061,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2093,7 +2093,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2125,7 +2125,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2157,7 +2157,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2189,7 +2189,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2221,7 +2221,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2253,7 +2253,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2285,7 +2285,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2317,7 +2317,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2349,7 +2349,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2381,7 +2381,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2413,7 +2413,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2445,7 +2445,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2477,7 +2477,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Alaa Hussein Elshafey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -614,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -914,7 +923,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T53"/>
+  <x:dimension ref="A1:T54"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1773,7 +1782,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45928.4344083333</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1805,7 +1814,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1837,7 +1846,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1869,7 +1878,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1901,7 +1910,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1933,7 +1942,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1965,7 +1974,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2093,7 +2102,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2125,7 +2134,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2157,7 +2166,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2189,7 +2198,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2221,7 +2230,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2253,7 +2262,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2285,7 +2294,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2317,7 +2326,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2349,7 +2358,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2381,7 +2390,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2413,7 +2422,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2445,7 +2454,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2477,7 +2486,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2509,7 +2518,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2541,7 +2550,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2573,7 +2582,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2605,7 +2614,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2637,7 +2646,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2654,6 +2663,38 @@
       <x:c r="R53" s="2" t="s"/>
       <x:c r="S53" s="2" t="s"/>
       <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -1398,7 +1398,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45928.8507486111</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -2646,7 +2646,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45928.7984668982</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Sama Mohamed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف طارق عبدالستار محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif tarek abd El sattar</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -623,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -923,7 +932,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T54"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1814,7 +1823,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45931.4724946412</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1846,7 +1855,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1878,7 +1887,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1910,7 +1919,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2134,7 +2143,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2166,7 +2175,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2198,7 +2207,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2230,7 +2239,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2326,7 +2335,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2358,7 +2367,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2390,7 +2399,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2422,7 +2431,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2454,7 +2463,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2486,7 +2495,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2518,7 +2527,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2550,7 +2559,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2582,7 +2591,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2614,7 +2623,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2646,7 +2655,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45928.7984668982</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2678,7 +2687,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45928.7984668982</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2695,6 +2704,38 @@
       <x:c r="R54" s="2" t="s"/>
       <x:c r="S54" s="2" t="s"/>
       <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Salma Alaa Hussein Elshafey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1220059</x:t>
@@ -632,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -932,7 +923,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T54"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1791,7 +1782,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.4344083333</x:v>
+        <x:v>45931.4724946412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1823,7 +1814,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45931.4724946412</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1855,7 +1846,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1887,7 +1878,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1919,7 +1910,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1951,7 +1942,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1983,7 +1974,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2015,7 +2006,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2047,7 +2038,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2079,7 +2070,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2111,7 +2102,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2143,7 +2134,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2175,7 +2166,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2207,7 +2198,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2239,7 +2230,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2271,7 +2262,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2303,7 +2294,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2335,7 +2326,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2367,7 +2358,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2399,7 +2390,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2431,7 +2422,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2463,7 +2454,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2495,7 +2486,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2527,7 +2518,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2559,7 +2550,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2591,7 +2582,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2623,7 +2614,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2655,7 +2646,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45928.7984668982</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2687,7 +2678,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45928.7984668982</x:v>
+        <x:v>45907.6660571412</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2704,38 +2695,6 @@
       <x:c r="R54" s="2" t="s"/>
       <x:c r="S54" s="2" t="s"/>
       <x:c r="T54" s="2" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20">
-      <x:c r="A55" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D55" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="E55" s="3">
-        <x:v>45907.6660571412</x:v>
-      </x:c>
-      <x:c r="F55" s="2" t="s"/>
-      <x:c r="G55" s="2" t="s"/>
-      <x:c r="H55" s="2" t="s"/>
-      <x:c r="I55" s="2" t="s"/>
-      <x:c r="J55" s="2" t="s"/>
-      <x:c r="K55" s="2" t="s"/>
-      <x:c r="L55" s="2" t="s"/>
-      <x:c r="M55" s="2" t="s"/>
-      <x:c r="N55" s="2" t="s"/>
-      <x:c r="O55" s="2" t="s"/>
-      <x:c r="P55" s="2" t="s"/>
-      <x:c r="Q55" s="2" t="s"/>
-      <x:c r="R55" s="2" t="s"/>
-      <x:c r="S55" s="2" t="s"/>
-      <x:c r="T55" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Lecture-35401.xlsx
+++ b/downloaded_files/EPES204_Lecture-35401.xlsx
@@ -318,7 +318,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1210060</x:t>
